--- a/tests/advanced/randomized_tests/b06.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b06.stpprocessed_rand_results_test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
@@ -32,6 +32,9 @@
     <t>S*-MM0</t>
   </si>
   <si>
+    <t>S*-unmerged</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
   </si>
   <si>
     <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -438,13 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,8 +481,14 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -496,18 +508,24 @@
         <v>128</v>
       </c>
       <c r="G2">
+        <v>128</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2" t="b">
+      <c r="I2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -518,7 +536,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -526,36 +544,36 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -564,28 +582,28 @@
         <v>48</v>
       </c>
       <c r="D2">
-        <v>0.001049203565344214</v>
+        <v>8.91457311809063E-05</v>
       </c>
       <c r="E2">
-        <v>0.2922461199341342</v>
+        <v>0.02504725521430373</v>
       </c>
       <c r="F2">
         <v>48</v>
       </c>
       <c r="G2">
-        <v>0.01581617805641145</v>
+        <v>0.002023348119109869</v>
       </c>
       <c r="H2">
-        <v>0.02096459490712732</v>
+        <v>0.003185389097779989</v>
       </c>
       <c r="I2">
-        <v>0.05886293214280158</v>
+        <v>0.006114192772656679</v>
       </c>
       <c r="J2">
-        <v>0.1829438408603892</v>
+        <v>0.01127113122493029</v>
       </c>
       <c r="K2">
-        <v>0.003531471127644181</v>
+        <v>0.0007171705365180969</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -594,31 +612,31 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>0.1129020294174552</v>
+        <v>0.002587008755654097</v>
       </c>
       <c r="E3">
-        <v>0.6505750929936767</v>
+        <v>0.03498434787616134</v>
       </c>
       <c r="F3">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G3">
-        <v>0.01818978495430201</v>
+        <v>0.00231133634224534</v>
       </c>
       <c r="H3">
-        <v>0.1447764970362186</v>
+        <v>0.006467015016824007</v>
       </c>
       <c r="I3">
-        <v>0.2303416660288349</v>
+        <v>0.007225723005831242</v>
       </c>
       <c r="J3">
-        <v>0.2395454621873796</v>
+        <v>0.01598513964563608</v>
       </c>
       <c r="K3">
-        <v>0.004410962690599263</v>
+        <v>0.000906776636838913</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -630,28 +648,28 @@
         <v>48</v>
       </c>
       <c r="D4">
-        <v>0.07983360311482102</v>
+        <v>0.002929155249148607</v>
       </c>
       <c r="E4">
-        <v>0.6592008019797504</v>
+        <v>0.03561321692541242</v>
       </c>
       <c r="F4">
         <v>48</v>
       </c>
       <c r="G4">
-        <v>0.01547566440422088</v>
+        <v>0.002260776236653328</v>
       </c>
       <c r="H4">
-        <v>0.1016516198869795</v>
+        <v>0.006592562887817621</v>
       </c>
       <c r="I4">
-        <v>0.2886811922071502</v>
+        <v>0.007945331279188395</v>
       </c>
       <c r="J4">
-        <v>0.2396843251772225</v>
+        <v>0.01615219935774803</v>
       </c>
       <c r="K4">
-        <v>0.003470507566817105</v>
+        <v>0.0007207700982689857</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,192 +681,258 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>0.00152666075155139</v>
+        <v>0.0001705302856862545</v>
       </c>
       <c r="E5">
-        <v>0.345635509933345</v>
+        <v>0.02893384778872132</v>
       </c>
       <c r="F5">
         <v>48</v>
       </c>
       <c r="G5">
-        <v>0.01807026157621294</v>
+        <v>0.002520418725907803</v>
       </c>
       <c r="H5">
-        <v>0.02547956234775484</v>
+        <v>0.004113330971449614</v>
       </c>
       <c r="I5">
-        <v>0.09208027308341116</v>
+        <v>0.007866930682212114</v>
       </c>
       <c r="J5">
-        <v>0.1943843429908156</v>
+        <v>0.01168011547997594</v>
       </c>
       <c r="K5">
-        <v>0.004045007983222604</v>
+        <v>0.000784547533839941</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C6">
+        <v>96</v>
+      </c>
+      <c r="D6">
+        <v>0.003886665217578411</v>
+      </c>
+      <c r="E6">
+        <v>0.08259139815345407</v>
+      </c>
+      <c r="F6">
+        <v>96</v>
+      </c>
+      <c r="G6">
+        <v>0.004012365825474262</v>
+      </c>
+      <c r="H6">
+        <v>0.01105505228042603</v>
+      </c>
+      <c r="I6">
+        <v>0.03809424489736557</v>
+      </c>
+      <c r="J6">
+        <v>0.02431661868467927</v>
+      </c>
+      <c r="K6">
+        <v>0.001474921125918627</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
         <v>1250</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0.01371327193919569</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>48</v>
-      </c>
-      <c r="D7">
-        <v>0.001049203565344214</v>
-      </c>
-      <c r="E7">
-        <v>0.2922461199341342</v>
-      </c>
-      <c r="F7">
-        <v>48</v>
-      </c>
-      <c r="G7">
-        <v>0.01581617805641145</v>
-      </c>
-      <c r="H7">
-        <v>0.02096459490712732</v>
-      </c>
-      <c r="I7">
-        <v>0.05886293214280158</v>
-      </c>
-      <c r="J7">
-        <v>0.1829438408603892</v>
-      </c>
-      <c r="K7">
-        <v>0.003531471127644181</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C8">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>0.1129020294174552</v>
+        <v>8.91457311809063E-05</v>
       </c>
       <c r="E8">
-        <v>0.6505750929936767</v>
+        <v>0.02504725521430373</v>
       </c>
       <c r="F8">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G8">
-        <v>0.01818978495430201</v>
+        <v>0.002023348119109869</v>
       </c>
       <c r="H8">
-        <v>0.1447764970362186</v>
+        <v>0.003185389097779989</v>
       </c>
       <c r="I8">
-        <v>0.2303416660288349</v>
+        <v>0.006114192772656679</v>
       </c>
       <c r="J8">
-        <v>0.2395454621873796</v>
+        <v>0.01127113122493029</v>
       </c>
       <c r="K8">
-        <v>0.004410962690599263</v>
+        <v>0.0007171705365180969</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>48</v>
       </c>
       <c r="D9">
-        <v>0.07983360311482102</v>
+        <v>0.002587008755654097</v>
       </c>
       <c r="E9">
-        <v>0.6592008019797504</v>
+        <v>0.03498434787616134</v>
       </c>
       <c r="F9">
         <v>48</v>
       </c>
       <c r="G9">
-        <v>0.01547566440422088</v>
+        <v>0.00231133634224534</v>
       </c>
       <c r="H9">
-        <v>0.1016516198869795</v>
+        <v>0.006467015016824007</v>
       </c>
       <c r="I9">
-        <v>0.2886811922071502</v>
+        <v>0.007225723005831242</v>
       </c>
       <c r="J9">
-        <v>0.2396843251772225</v>
+        <v>0.01598513964563608</v>
       </c>
       <c r="K9">
-        <v>0.003470507566817105</v>
+        <v>0.000906776636838913</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>48</v>
       </c>
       <c r="D10">
-        <v>0.00152666075155139</v>
+        <v>0.002929155249148607</v>
       </c>
       <c r="E10">
-        <v>0.345635509933345</v>
+        <v>0.03561321692541242</v>
       </c>
       <c r="F10">
         <v>48</v>
       </c>
       <c r="G10">
-        <v>0.01807026157621294</v>
+        <v>0.002260776236653328</v>
       </c>
       <c r="H10">
-        <v>0.02547956234775484</v>
+        <v>0.006592562887817621</v>
       </c>
       <c r="I10">
-        <v>0.09208027308341116</v>
+        <v>0.007945331279188395</v>
       </c>
       <c r="J10">
-        <v>0.1943843429908156</v>
+        <v>0.01615219935774803</v>
       </c>
       <c r="K10">
-        <v>0.004045007983222604</v>
+        <v>0.0007207700982689857</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C11">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>0.0001705302856862545</v>
+      </c>
+      <c r="E11">
+        <v>0.02893384778872132</v>
+      </c>
+      <c r="F11">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>0.002520418725907803</v>
+      </c>
+      <c r="H11">
+        <v>0.004113330971449614</v>
+      </c>
+      <c r="I11">
+        <v>0.007866930682212114</v>
+      </c>
+      <c r="J11">
+        <v>0.01168011547997594</v>
+      </c>
+      <c r="K11">
+        <v>0.000784547533839941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>96</v>
+      </c>
+      <c r="D12">
+        <v>0.003886665217578411</v>
+      </c>
+      <c r="E12">
+        <v>0.08259139815345407</v>
+      </c>
+      <c r="F12">
+        <v>96</v>
+      </c>
+      <c r="G12">
+        <v>0.004012365825474262</v>
+      </c>
+      <c r="H12">
+        <v>0.01105505228042603</v>
+      </c>
+      <c r="I12">
+        <v>0.03809424489736557</v>
+      </c>
+      <c r="J12">
+        <v>0.02431661868467927</v>
+      </c>
+      <c r="K12">
+        <v>0.001474921125918627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
         <v>1250</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>0.01371327193919569</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b06.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b06.stpprocessed_rand_results_test.xlsx
@@ -579,31 +579,31 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>8.91457311809063E-05</v>
+        <v>0.0001680972054600716</v>
       </c>
       <c r="E2">
-        <v>0.02504725521430373</v>
+        <v>0.05758977402001619</v>
       </c>
       <c r="F2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>0.002023348119109869</v>
+        <v>0.003439337480813265</v>
       </c>
       <c r="H2">
-        <v>0.003185389097779989</v>
+        <v>0.005828536115586758</v>
       </c>
       <c r="I2">
-        <v>0.006114192772656679</v>
+        <v>0.02147068968042731</v>
       </c>
       <c r="J2">
-        <v>0.01127113122493029</v>
+        <v>0.02305149985477328</v>
       </c>
       <c r="K2">
-        <v>0.0007171705365180969</v>
+        <v>0.00104889739304781</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -612,31 +612,31 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3">
-        <v>0.002587008755654097</v>
+        <v>0.002187512349337339</v>
       </c>
       <c r="E3">
-        <v>0.03498434787616134</v>
+        <v>0.04136045090854168</v>
       </c>
       <c r="F3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3">
-        <v>0.00231133634224534</v>
+        <v>0.002034189645200968</v>
       </c>
       <c r="H3">
-        <v>0.006467015016824007</v>
+        <v>0.005864783655852079</v>
       </c>
       <c r="I3">
-        <v>0.007225723005831242</v>
+        <v>0.01335992338135839</v>
       </c>
       <c r="J3">
-        <v>0.01598513964563608</v>
+        <v>0.01779578160494566</v>
       </c>
       <c r="K3">
-        <v>0.000906776636838913</v>
+        <v>0.0006804326549172401</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -645,31 +645,31 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>0.002929155249148607</v>
+        <v>0.003939507994800806</v>
       </c>
       <c r="E4">
-        <v>0.03561321692541242</v>
+        <v>0.06558519415557384</v>
       </c>
       <c r="F4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4">
-        <v>0.002260776236653328</v>
+        <v>0.003155517857521772</v>
       </c>
       <c r="H4">
-        <v>0.006592562887817621</v>
+        <v>0.009292104747146368</v>
       </c>
       <c r="I4">
-        <v>0.007945331279188395</v>
+        <v>0.02248858381062746</v>
       </c>
       <c r="J4">
-        <v>0.01615219935774803</v>
+        <v>0.02733874786645174</v>
       </c>
       <c r="K4">
-        <v>0.0007207700982689857</v>
+        <v>0.0008859853260219097</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -678,31 +678,31 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>0.0001705302856862545</v>
+        <v>0.0001551201567053795</v>
       </c>
       <c r="E5">
-        <v>0.02893384778872132</v>
+        <v>0.03734809719026089</v>
       </c>
       <c r="F5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5">
-        <v>0.002520418725907803</v>
+        <v>0.00212458148598671</v>
       </c>
       <c r="H5">
-        <v>0.004113330971449614</v>
+        <v>0.003786101005971432</v>
       </c>
       <c r="I5">
-        <v>0.007866930682212114</v>
+        <v>0.01385019673034549</v>
       </c>
       <c r="J5">
-        <v>0.01168011547997594</v>
+        <v>0.01518407743424177</v>
       </c>
       <c r="K5">
-        <v>0.000784547533839941</v>
+        <v>0.0006839144043624401</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -714,28 +714,28 @@
         <v>96</v>
       </c>
       <c r="D6">
-        <v>0.003886665217578411</v>
+        <v>0.003559940028935671</v>
       </c>
       <c r="E6">
-        <v>0.08259139815345407</v>
+        <v>0.1465741978026927</v>
       </c>
       <c r="F6">
         <v>96</v>
       </c>
       <c r="G6">
-        <v>0.004012365825474262</v>
+        <v>0.004158143885433674</v>
       </c>
       <c r="H6">
-        <v>0.01105505228042603</v>
+        <v>0.01211459096521139</v>
       </c>
       <c r="I6">
-        <v>0.03809424489736557</v>
+        <v>0.1046045836992562</v>
       </c>
       <c r="J6">
-        <v>0.02431661868467927</v>
+        <v>0.02039917698130012</v>
       </c>
       <c r="K6">
-        <v>0.001474921125918627</v>
+        <v>0.00143083930015564</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -758,31 +758,31 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>8.91457311809063E-05</v>
+        <v>0.0001680972054600716</v>
       </c>
       <c r="E8">
-        <v>0.02504725521430373</v>
+        <v>0.05758977402001619</v>
       </c>
       <c r="F8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8">
-        <v>0.002023348119109869</v>
+        <v>0.003439337480813265</v>
       </c>
       <c r="H8">
-        <v>0.003185389097779989</v>
+        <v>0.005828536115586758</v>
       </c>
       <c r="I8">
-        <v>0.006114192772656679</v>
+        <v>0.02147068968042731</v>
       </c>
       <c r="J8">
-        <v>0.01127113122493029</v>
+        <v>0.02305149985477328</v>
       </c>
       <c r="K8">
-        <v>0.0007171705365180969</v>
+        <v>0.00104889739304781</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -791,31 +791,31 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>0.002587008755654097</v>
+        <v>0.002187512349337339</v>
       </c>
       <c r="E9">
-        <v>0.03498434787616134</v>
+        <v>0.04136045090854168</v>
       </c>
       <c r="F9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9">
-        <v>0.00231133634224534</v>
+        <v>0.002034189645200968</v>
       </c>
       <c r="H9">
-        <v>0.006467015016824007</v>
+        <v>0.005864783655852079</v>
       </c>
       <c r="I9">
-        <v>0.007225723005831242</v>
+        <v>0.01335992338135839</v>
       </c>
       <c r="J9">
-        <v>0.01598513964563608</v>
+        <v>0.01779578160494566</v>
       </c>
       <c r="K9">
-        <v>0.000906776636838913</v>
+        <v>0.0006804326549172401</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -824,31 +824,31 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10">
-        <v>0.002929155249148607</v>
+        <v>0.003939507994800806</v>
       </c>
       <c r="E10">
-        <v>0.03561321692541242</v>
+        <v>0.06558519415557384</v>
       </c>
       <c r="F10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10">
-        <v>0.002260776236653328</v>
+        <v>0.003155517857521772</v>
       </c>
       <c r="H10">
-        <v>0.006592562887817621</v>
+        <v>0.009292104747146368</v>
       </c>
       <c r="I10">
-        <v>0.007945331279188395</v>
+        <v>0.02248858381062746</v>
       </c>
       <c r="J10">
-        <v>0.01615219935774803</v>
+        <v>0.02733874786645174</v>
       </c>
       <c r="K10">
-        <v>0.0007207700982689857</v>
+        <v>0.0008859853260219097</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -857,31 +857,31 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11">
-        <v>0.0001705302856862545</v>
+        <v>0.0001551201567053795</v>
       </c>
       <c r="E11">
-        <v>0.02893384778872132</v>
+        <v>0.03734809719026089</v>
       </c>
       <c r="F11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11">
-        <v>0.002520418725907803</v>
+        <v>0.00212458148598671</v>
       </c>
       <c r="H11">
-        <v>0.004113330971449614</v>
+        <v>0.003786101005971432</v>
       </c>
       <c r="I11">
-        <v>0.007866930682212114</v>
+        <v>0.01385019673034549</v>
       </c>
       <c r="J11">
-        <v>0.01168011547997594</v>
+        <v>0.01518407743424177</v>
       </c>
       <c r="K11">
-        <v>0.000784547533839941</v>
+        <v>0.0006839144043624401</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,28 +893,28 @@
         <v>96</v>
       </c>
       <c r="D12">
-        <v>0.003886665217578411</v>
+        <v>0.003559940028935671</v>
       </c>
       <c r="E12">
-        <v>0.08259139815345407</v>
+        <v>0.1465741978026927</v>
       </c>
       <c r="F12">
         <v>96</v>
       </c>
       <c r="G12">
-        <v>0.004012365825474262</v>
+        <v>0.004158143885433674</v>
       </c>
       <c r="H12">
-        <v>0.01105505228042603</v>
+        <v>0.01211459096521139</v>
       </c>
       <c r="I12">
-        <v>0.03809424489736557</v>
+        <v>0.1046045836992562</v>
       </c>
       <c r="J12">
-        <v>0.02431661868467927</v>
+        <v>0.02039917698130012</v>
       </c>
       <c r="K12">
-        <v>0.001474921125918627</v>
+        <v>0.00143083930015564</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/tests/advanced/randomized_tests/b06.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b06.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>128</v>
       </c>
       <c r="D2">
-        <v>128</v>
-      </c>
-      <c r="E2">
-        <v>128</v>
-      </c>
-      <c r="F2">
-        <v>128</v>
-      </c>
-      <c r="G2">
-        <v>128</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D2">
-        <v>0.0001680972054600716</v>
+        <v>0.004630766343325377</v>
       </c>
       <c r="E2">
-        <v>0.05758977402001619</v>
+        <v>0.05354699166491628</v>
       </c>
       <c r="F2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G2">
-        <v>0.003439337480813265</v>
+        <v>0.003897543996572495</v>
       </c>
       <c r="H2">
-        <v>0.005828536115586758</v>
+        <v>0.01035324577242136</v>
       </c>
       <c r="I2">
-        <v>0.02147068968042731</v>
+        <v>0.01821265649050474</v>
       </c>
       <c r="J2">
-        <v>0.02305149985477328</v>
+        <v>0.01580239739269018</v>
       </c>
       <c r="K2">
-        <v>0.00104889739304781</v>
+        <v>0.002223721239715815</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>47</v>
-      </c>
-      <c r="D3">
-        <v>0.002187512349337339</v>
+        <v>1250</v>
       </c>
       <c r="E3">
-        <v>0.04136045090854168</v>
-      </c>
-      <c r="F3">
-        <v>47</v>
-      </c>
-      <c r="G3">
-        <v>0.002034189645200968</v>
-      </c>
-      <c r="H3">
-        <v>0.005864783655852079</v>
-      </c>
-      <c r="I3">
-        <v>0.01335992338135839</v>
-      </c>
-      <c r="J3">
-        <v>0.01779578160494566</v>
-      </c>
-      <c r="K3">
-        <v>0.0006804326549172401</v>
+        <v>0.01371327193919569</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>0.003939507994800806</v>
+        <v>0.004630766343325377</v>
       </c>
       <c r="E4">
-        <v>0.06558519415557384</v>
+        <v>0.05354699166491628</v>
       </c>
       <c r="F4">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G4">
-        <v>0.003155517857521772</v>
+        <v>0.003897543996572495</v>
       </c>
       <c r="H4">
-        <v>0.009292104747146368</v>
+        <v>0.01035324577242136</v>
       </c>
       <c r="I4">
-        <v>0.02248858381062746</v>
+        <v>0.01821265649050474</v>
       </c>
       <c r="J4">
-        <v>0.02733874786645174</v>
+        <v>0.01580239739269018</v>
       </c>
       <c r="K4">
-        <v>0.0008859853260219097</v>
+        <v>0.002223721239715815</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>47</v>
-      </c>
-      <c r="D5">
-        <v>0.0001551201567053795</v>
+        <v>1250</v>
       </c>
       <c r="E5">
-        <v>0.03734809719026089</v>
-      </c>
-      <c r="F5">
-        <v>47</v>
-      </c>
-      <c r="G5">
-        <v>0.00212458148598671</v>
-      </c>
-      <c r="H5">
-        <v>0.003786101005971432</v>
-      </c>
-      <c r="I5">
-        <v>0.01385019673034549</v>
-      </c>
-      <c r="J5">
-        <v>0.01518407743424177</v>
-      </c>
-      <c r="K5">
-        <v>0.0006839144043624401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>96</v>
-      </c>
-      <c r="D6">
-        <v>0.003559940028935671</v>
-      </c>
-      <c r="E6">
-        <v>0.1465741978026927</v>
-      </c>
-      <c r="F6">
-        <v>96</v>
-      </c>
-      <c r="G6">
-        <v>0.004158143885433674</v>
-      </c>
-      <c r="H6">
-        <v>0.01211459096521139</v>
-      </c>
-      <c r="I6">
-        <v>0.1046045836992562</v>
-      </c>
-      <c r="J6">
-        <v>0.02039917698130012</v>
-      </c>
-      <c r="K6">
-        <v>0.00143083930015564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>1250</v>
-      </c>
-      <c r="E7">
-        <v>0.01371327193919569</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>47</v>
-      </c>
-      <c r="D8">
-        <v>0.0001680972054600716</v>
-      </c>
-      <c r="E8">
-        <v>0.05758977402001619</v>
-      </c>
-      <c r="F8">
-        <v>47</v>
-      </c>
-      <c r="G8">
-        <v>0.003439337480813265</v>
-      </c>
-      <c r="H8">
-        <v>0.005828536115586758</v>
-      </c>
-      <c r="I8">
-        <v>0.02147068968042731</v>
-      </c>
-      <c r="J8">
-        <v>0.02305149985477328</v>
-      </c>
-      <c r="K8">
-        <v>0.00104889739304781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>47</v>
-      </c>
-      <c r="D9">
-        <v>0.002187512349337339</v>
-      </c>
-      <c r="E9">
-        <v>0.04136045090854168</v>
-      </c>
-      <c r="F9">
-        <v>47</v>
-      </c>
-      <c r="G9">
-        <v>0.002034189645200968</v>
-      </c>
-      <c r="H9">
-        <v>0.005864783655852079</v>
-      </c>
-      <c r="I9">
-        <v>0.01335992338135839</v>
-      </c>
-      <c r="J9">
-        <v>0.01779578160494566</v>
-      </c>
-      <c r="K9">
-        <v>0.0006804326549172401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>47</v>
-      </c>
-      <c r="D10">
-        <v>0.003939507994800806</v>
-      </c>
-      <c r="E10">
-        <v>0.06558519415557384</v>
-      </c>
-      <c r="F10">
-        <v>47</v>
-      </c>
-      <c r="G10">
-        <v>0.003155517857521772</v>
-      </c>
-      <c r="H10">
-        <v>0.009292104747146368</v>
-      </c>
-      <c r="I10">
-        <v>0.02248858381062746</v>
-      </c>
-      <c r="J10">
-        <v>0.02733874786645174</v>
-      </c>
-      <c r="K10">
-        <v>0.0008859853260219097</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>47</v>
-      </c>
-      <c r="D11">
-        <v>0.0001551201567053795</v>
-      </c>
-      <c r="E11">
-        <v>0.03734809719026089</v>
-      </c>
-      <c r="F11">
-        <v>47</v>
-      </c>
-      <c r="G11">
-        <v>0.00212458148598671</v>
-      </c>
-      <c r="H11">
-        <v>0.003786101005971432</v>
-      </c>
-      <c r="I11">
-        <v>0.01385019673034549</v>
-      </c>
-      <c r="J11">
-        <v>0.01518407743424177</v>
-      </c>
-      <c r="K11">
-        <v>0.0006839144043624401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>96</v>
-      </c>
-      <c r="D12">
-        <v>0.003559940028935671</v>
-      </c>
-      <c r="E12">
-        <v>0.1465741978026927</v>
-      </c>
-      <c r="F12">
-        <v>96</v>
-      </c>
-      <c r="G12">
-        <v>0.004158143885433674</v>
-      </c>
-      <c r="H12">
-        <v>0.01211459096521139</v>
-      </c>
-      <c r="I12">
-        <v>0.1046045836992562</v>
-      </c>
-      <c r="J12">
-        <v>0.02039917698130012</v>
-      </c>
-      <c r="K12">
-        <v>0.00143083930015564</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>1250</v>
-      </c>
-      <c r="E13">
         <v>0.01371327193919569</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b06.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b06.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>128</v>
       </c>
       <c r="D2">
+        <v>128</v>
+      </c>
+      <c r="E2">
+        <v>128</v>
+      </c>
+      <c r="F2">
+        <v>128</v>
+      </c>
+      <c r="G2">
+        <v>128</v>
+      </c>
+      <c r="H2">
+        <v>128</v>
+      </c>
+      <c r="I2">
+        <v>128</v>
+      </c>
+      <c r="J2">
+        <v>128</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>0.004630766343325377</v>
+        <v>0.0002451068721711636</v>
       </c>
       <c r="E2">
-        <v>0.05354699166491628</v>
+        <v>0.03242545062676072</v>
       </c>
       <c r="F2">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="G2">
-        <v>0.003897543996572495</v>
+        <v>0.002715751994401217</v>
       </c>
       <c r="H2">
-        <v>0.01035324577242136</v>
+        <v>0.004354450386017561</v>
       </c>
       <c r="I2">
-        <v>0.01821265649050474</v>
+        <v>0.01092393742874265</v>
       </c>
       <c r="J2">
-        <v>0.01580239739269018</v>
+        <v>0.01095557305961847</v>
       </c>
       <c r="K2">
-        <v>0.002223721239715815</v>
+        <v>0.001458540093153715</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1250</v>
+        <v>77</v>
+      </c>
+      <c r="D3">
+        <v>0.006225192919373512</v>
       </c>
       <c r="E3">
-        <v>0.01371327193919569</v>
+        <v>0.06832863530144095</v>
+      </c>
+      <c r="F3">
+        <v>77</v>
+      </c>
+      <c r="G3">
+        <v>0.004987438209354877</v>
+      </c>
+      <c r="H3">
+        <v>0.01378300087526441</v>
+      </c>
+      <c r="I3">
+        <v>0.02510724263265729</v>
+      </c>
+      <c r="J3">
+        <v>0.0177641180343926</v>
+      </c>
+      <c r="K3">
+        <v>0.002714316360652447</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D4">
-        <v>0.004630766343325377</v>
+        <v>0.003410105593502522</v>
       </c>
       <c r="E4">
-        <v>0.05354699166491628</v>
+        <v>0.03924676077440381</v>
       </c>
       <c r="F4">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="G4">
-        <v>0.003897543996572495</v>
+        <v>0.00284494599327445</v>
       </c>
       <c r="H4">
-        <v>0.01035324577242136</v>
+        <v>0.007648920174688101</v>
       </c>
       <c r="I4">
-        <v>0.01821265649050474</v>
+        <v>0.01119845593348145</v>
       </c>
       <c r="J4">
-        <v>0.01580239739269018</v>
+        <v>0.01400728896260262</v>
       </c>
       <c r="K4">
-        <v>0.002223721239715815</v>
+        <v>0.001598041970282793</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>0.0001863907091319561</v>
+      </c>
+      <c r="E5">
+        <v>0.04012327082455158</v>
+      </c>
+      <c r="F5">
+        <v>47</v>
+      </c>
+      <c r="G5">
+        <v>0.003580756951123476</v>
+      </c>
+      <c r="H5">
+        <v>0.005013581365346909</v>
+      </c>
+      <c r="I5">
+        <v>0.01157059101387858</v>
+      </c>
+      <c r="J5">
+        <v>0.01609609462320805</v>
+      </c>
+      <c r="K5">
+        <v>0.001548182219266891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>96</v>
+      </c>
+      <c r="D6">
+        <v>0.0005561583675444126</v>
+      </c>
+      <c r="E6">
+        <v>0.07979768700897694</v>
+      </c>
+      <c r="F6">
+        <v>96</v>
+      </c>
+      <c r="G6">
+        <v>0.005042038857936859</v>
+      </c>
+      <c r="H6">
+        <v>0.008044415153563023</v>
+      </c>
+      <c r="I6">
+        <v>0.05208653211593628</v>
+      </c>
+      <c r="J6">
+        <v>0.007848513778299093</v>
+      </c>
+      <c r="K6">
+        <v>0.002860472537577152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>368</v>
+      </c>
+      <c r="D7">
+        <v>0.01051844330504537</v>
+      </c>
+      <c r="E7">
+        <v>0.3462346661835909</v>
+      </c>
+      <c r="F7">
+        <v>368</v>
+      </c>
+      <c r="G7">
+        <v>0.01643685763701797</v>
+      </c>
+      <c r="H7">
+        <v>0.0361148570664227</v>
+      </c>
+      <c r="I7">
+        <v>0.2347025987692177</v>
+      </c>
+      <c r="J7">
+        <v>0.03569500381127</v>
+      </c>
+      <c r="K7">
+        <v>0.009881378617137671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>96</v>
+      </c>
+      <c r="D8">
+        <v>0.004110853653401136</v>
+      </c>
+      <c r="E8">
+        <v>0.09302877262234688</v>
+      </c>
+      <c r="F8">
+        <v>96</v>
+      </c>
+      <c r="G8">
+        <v>0.004672514274716377</v>
+      </c>
+      <c r="H8">
+        <v>0.01203017495572567</v>
+      </c>
+      <c r="I8">
+        <v>0.0524649522267282</v>
+      </c>
+      <c r="J8">
+        <v>0.01762183895334601</v>
+      </c>
+      <c r="K8">
+        <v>0.002633027732372284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>96</v>
+      </c>
+      <c r="D9">
+        <v>0.0006483658216893673</v>
+      </c>
+      <c r="E9">
+        <v>0.07810642477124929</v>
+      </c>
+      <c r="F9">
+        <v>96</v>
+      </c>
+      <c r="G9">
+        <v>0.004557656589895487</v>
+      </c>
+      <c r="H9">
+        <v>0.007937310263514519</v>
+      </c>
+      <c r="I9">
+        <v>0.05150484060868621</v>
+      </c>
+      <c r="J9">
+        <v>0.00793291674926877</v>
+      </c>
+      <c r="K9">
+        <v>0.002594252582639456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>1250</v>
       </c>
-      <c r="E5">
+      <c r="E10">
+        <v>0.01371327193919569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>0.0002451068721711636</v>
+      </c>
+      <c r="E11">
+        <v>0.03242545062676072</v>
+      </c>
+      <c r="F11">
+        <v>47</v>
+      </c>
+      <c r="G11">
+        <v>0.002715751994401217</v>
+      </c>
+      <c r="H11">
+        <v>0.004354450386017561</v>
+      </c>
+      <c r="I11">
+        <v>0.01092393742874265</v>
+      </c>
+      <c r="J11">
+        <v>0.01095557305961847</v>
+      </c>
+      <c r="K11">
+        <v>0.001458540093153715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>0.006225192919373512</v>
+      </c>
+      <c r="E12">
+        <v>0.06832863530144095</v>
+      </c>
+      <c r="F12">
+        <v>77</v>
+      </c>
+      <c r="G12">
+        <v>0.004987438209354877</v>
+      </c>
+      <c r="H12">
+        <v>0.01378300087526441</v>
+      </c>
+      <c r="I12">
+        <v>0.02510724263265729</v>
+      </c>
+      <c r="J12">
+        <v>0.0177641180343926</v>
+      </c>
+      <c r="K12">
+        <v>0.002714316360652447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>0.003410105593502522</v>
+      </c>
+      <c r="E13">
+        <v>0.03924676077440381</v>
+      </c>
+      <c r="F13">
+        <v>47</v>
+      </c>
+      <c r="G13">
+        <v>0.00284494599327445</v>
+      </c>
+      <c r="H13">
+        <v>0.007648920174688101</v>
+      </c>
+      <c r="I13">
+        <v>0.01119845593348145</v>
+      </c>
+      <c r="J13">
+        <v>0.01400728896260262</v>
+      </c>
+      <c r="K13">
+        <v>0.001598041970282793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>0.0001863907091319561</v>
+      </c>
+      <c r="E14">
+        <v>0.04012327082455158</v>
+      </c>
+      <c r="F14">
+        <v>47</v>
+      </c>
+      <c r="G14">
+        <v>0.003580756951123476</v>
+      </c>
+      <c r="H14">
+        <v>0.005013581365346909</v>
+      </c>
+      <c r="I14">
+        <v>0.01157059101387858</v>
+      </c>
+      <c r="J14">
+        <v>0.01609609462320805</v>
+      </c>
+      <c r="K14">
+        <v>0.001548182219266891</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>96</v>
+      </c>
+      <c r="D15">
+        <v>0.0005561583675444126</v>
+      </c>
+      <c r="E15">
+        <v>0.07979768700897694</v>
+      </c>
+      <c r="F15">
+        <v>96</v>
+      </c>
+      <c r="G15">
+        <v>0.005042038857936859</v>
+      </c>
+      <c r="H15">
+        <v>0.008044415153563023</v>
+      </c>
+      <c r="I15">
+        <v>0.05208653211593628</v>
+      </c>
+      <c r="J15">
+        <v>0.007848513778299093</v>
+      </c>
+      <c r="K15">
+        <v>0.002860472537577152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>368</v>
+      </c>
+      <c r="D16">
+        <v>0.01051844330504537</v>
+      </c>
+      <c r="E16">
+        <v>0.3462346661835909</v>
+      </c>
+      <c r="F16">
+        <v>368</v>
+      </c>
+      <c r="G16">
+        <v>0.01643685763701797</v>
+      </c>
+      <c r="H16">
+        <v>0.0361148570664227</v>
+      </c>
+      <c r="I16">
+        <v>0.2347025987692177</v>
+      </c>
+      <c r="J16">
+        <v>0.03569500381127</v>
+      </c>
+      <c r="K16">
+        <v>0.009881378617137671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>96</v>
+      </c>
+      <c r="D17">
+        <v>0.004110853653401136</v>
+      </c>
+      <c r="E17">
+        <v>0.09302877262234688</v>
+      </c>
+      <c r="F17">
+        <v>96</v>
+      </c>
+      <c r="G17">
+        <v>0.004672514274716377</v>
+      </c>
+      <c r="H17">
+        <v>0.01203017495572567</v>
+      </c>
+      <c r="I17">
+        <v>0.0524649522267282</v>
+      </c>
+      <c r="J17">
+        <v>0.01762183895334601</v>
+      </c>
+      <c r="K17">
+        <v>0.002633027732372284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>96</v>
+      </c>
+      <c r="D18">
+        <v>0.0006483658216893673</v>
+      </c>
+      <c r="E18">
+        <v>0.07810642477124929</v>
+      </c>
+      <c r="F18">
+        <v>96</v>
+      </c>
+      <c r="G18">
+        <v>0.004557656589895487</v>
+      </c>
+      <c r="H18">
+        <v>0.007937310263514519</v>
+      </c>
+      <c r="I18">
+        <v>0.05150484060868621</v>
+      </c>
+      <c r="J18">
+        <v>0.00793291674926877</v>
+      </c>
+      <c r="K18">
+        <v>0.002594252582639456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>1250</v>
+      </c>
+      <c r="E19">
         <v>0.01371327193919569</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
